--- a/Overview_Personas.xlsx
+++ b/Overview_Personas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Mein Mac (Hannahs-MBP)/Documents/GitHub/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4592EE1-EF86-F44B-AA72-9D43B06E1355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8FDB8F-48D2-2A4C-85F0-56295B9A3247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="28500" windowHeight="16340" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
   </bookViews>

--- a/Overview_Personas.xlsx
+++ b/Overview_Personas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Mein Mac (Hannahs-MBP)/Documents/GitHub/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8FDB8F-48D2-2A4C-85F0-56295B9A3247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E0DDD9-2632-704A-B439-4F49C20758E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="28500" windowHeight="16340" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Cluster #</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>complainers</t>
+  </si>
+  <si>
+    <t>4 (20)</t>
+  </si>
+  <si>
+    <t>1 (516)</t>
+  </si>
+  <si>
+    <t>2 (425)</t>
+  </si>
+  <si>
+    <t>5 (160)</t>
+  </si>
+  <si>
+    <t>0 (590)</t>
+  </si>
+  <si>
+    <t>3 (499)</t>
+  </si>
+  <si>
+    <t>total_spent</t>
   </si>
 </sst>
 </file>
@@ -136,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,11 +183,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E23F5C-01A5-6F4F-A2BE-6CAF40685C27}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,10 +517,10 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="5" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="24.83203125" customWidth="1"/>
+    <col min="14" max="14" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,15 +555,18 @@
         <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -562,54 +595,58 @@
       <c r="K2">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>50</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
         <v>60000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>480</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>6</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
+        <v>750</v>
+      </c>
+      <c r="M3" s="4">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -638,86 +675,96 @@
       <c r="K4">
         <v>6</v>
       </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>75000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>480</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1250</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>81000</v>
+      </c>
+      <c r="G6" s="4">
+        <v>930</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>75000</v>
-      </c>
-      <c r="G5">
-        <v>480</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
+      <c r="L6" s="4">
+        <v>1700</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>81000</v>
-      </c>
-      <c r="G6">
-        <v>930</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -743,11 +790,11 @@
       <c r="K7">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -779,8 +826,9 @@
         <f>SUM(K2:K7)</f>
         <v>31</v>
       </c>
+      <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -812,6 +860,7 @@
         <f>AVERAGE(K2:K7)</f>
         <v>5.166666666666667</v>
       </c>
+      <c r="L9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Overview_Personas.xlsx
+++ b/Overview_Personas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Mein Mac (Hannahs-MBP)/Documents/GitHub/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E0DDD9-2632-704A-B439-4F49C20758E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99DF2C4-4583-454D-9CE4-159275FD1094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16080" windowHeight="16480" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Cluster #</t>
   </si>
@@ -58,9 +58,6 @@
     <t>wine_spent</t>
   </si>
   <si>
-    <t>Summe</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -106,12 +103,6 @@
     <t>singles, medium-high income, no kids, no online, wine</t>
   </si>
   <si>
-    <t>singles,rich, wine, no kids</t>
-  </si>
-  <si>
-    <t>couple, rich, wine, no kids</t>
-  </si>
-  <si>
     <t>complainers</t>
   </si>
   <si>
@@ -134,13 +125,94 @@
   </si>
   <si>
     <t>total_spent</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>singles, rich, wine, no kids</t>
+  </si>
+  <si>
+    <t>couples, rich, wine, no kids</t>
+  </si>
+  <si>
+    <t>kidhome</t>
+  </si>
+  <si>
+    <t>teenhome</t>
+  </si>
+  <si>
+    <t>recency</t>
+  </si>
+  <si>
+    <t>mntwines</t>
+  </si>
+  <si>
+    <t>mntfruits</t>
+  </si>
+  <si>
+    <t>mntmeatproducts</t>
+  </si>
+  <si>
+    <t>mntfishproducts</t>
+  </si>
+  <si>
+    <t>mntsweetproducts</t>
+  </si>
+  <si>
+    <t>mntgoldprods</t>
+  </si>
+  <si>
+    <t>numdealspurchases</t>
+  </si>
+  <si>
+    <t>numwebpurchases</t>
+  </si>
+  <si>
+    <t>numcatalogpurchases</t>
+  </si>
+  <si>
+    <t>numstorepurchases</t>
+  </si>
+  <si>
+    <t>numwebvisitsmonth</t>
+  </si>
+  <si>
+    <t>complain</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>cust_since</t>
+  </si>
+  <si>
+    <t>acc_camp</t>
+  </si>
+  <si>
+    <t>cluster #</t>
+  </si>
+  <si>
+    <t>cluster_size</t>
+  </si>
+  <si>
+    <t>cluster_name</t>
+  </si>
+  <si>
+    <t>short description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +227,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,11 +257,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -191,6 +284,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,364 +602,989 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E23F5C-01A5-6F4F-A2BE-6CAF40685C27}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="76" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>60000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>480</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="Q3" s="4">
+        <v>750</v>
+      </c>
+      <c r="R3" s="4">
+        <v>43</v>
+      </c>
+      <c r="S3" s="4">
+        <v>3</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>43000</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="R4">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>75000</v>
+      </c>
+      <c r="L5" s="4">
+        <v>480</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1250</v>
+      </c>
+      <c r="R5" s="4">
+        <v>60</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="G6" s="4">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>81000</v>
+      </c>
+      <c r="L6" s="4">
+        <v>930</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1700</v>
+      </c>
+      <c r="R6" s="4">
+        <v>50</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>7</v>
       </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
+      <c r="R7" s="4">
+        <v>20</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>60000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>480</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>6</v>
-      </c>
-      <c r="L3" s="4">
-        <v>750</v>
-      </c>
-      <c r="M3" s="4">
-        <v>3</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>48</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>43000</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>75000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>480</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1250</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4">
-        <v>40</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>81000</v>
-      </c>
-      <c r="G6" s="4">
-        <v>930</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>3</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1700</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SUM(E2:E7)</f>
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
-        <f>SUM(F2:F7)</f>
-        <v>329000</v>
-      </c>
-      <c r="G8" s="2">
-        <f>SUM(G2:G7)</f>
-        <v>1940</v>
-      </c>
-      <c r="H8" s="2">
-        <f>SUM(H2:H7)</f>
-        <v>12</v>
-      </c>
-      <c r="I8" s="2">
-        <f>SUM(I2:I7)</f>
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <f>SUM(J2:J7)</f>
-        <v>3</v>
-      </c>
-      <c r="K8" s="2">
-        <f>SUM(K2:K7)</f>
-        <v>31</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2">
-        <f>AVERAGE(E2:E7)</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="F9" s="3">
-        <f>AVERAGE(F2:F7)</f>
-        <v>54833.333333333336</v>
-      </c>
-      <c r="G9" s="3">
-        <f>AVERAGE(G2:G8)</f>
-        <v>554.28571428571433</v>
-      </c>
-      <c r="H9" s="2">
-        <f>AVERAGE(H2:H7)</f>
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <f>AVERAGE(I2:I7)</f>
-        <v>0.33333333333333331</v>
       </c>
       <c r="J9" s="2">
         <f>AVERAGE(J2:J7)</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="K9" s="3">
+        <f>AVERAGE(K2:K7)</f>
+        <v>54833.333333333336</v>
+      </c>
+      <c r="L9" s="3">
+        <f>AVERAGE(L2:L8)</f>
+        <v>323.33333333333331</v>
+      </c>
+      <c r="M9" s="2">
+        <f>AVERAGE(M2:M7)</f>
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <f>AVERAGE(N2:N7)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O9" s="2">
+        <f>AVERAGE(O2:O7)</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="2">
-        <f>AVERAGE(K2:K7)</f>
+      <c r="P9" s="2">
+        <f>AVERAGE(P2:P7)</f>
         <v>5.166666666666667</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="Q9" s="2">
+        <f>AVERAGE(Q2:Q7)</f>
+        <v>1233.3333333333333</v>
+      </c>
+      <c r="R9" s="2">
+        <f>AVERAGE(R2:R7)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>590</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H13">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>36</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>70</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>516</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H14" s="4">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>50</v>
+      </c>
+      <c r="L14" s="4">
+        <v>480</v>
+      </c>
+      <c r="M14" s="4">
+        <v>15</v>
+      </c>
+      <c r="N14" s="4">
+        <v>100</v>
+      </c>
+      <c r="O14" s="4">
+        <v>20</v>
+      </c>
+      <c r="P14" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>45</v>
+      </c>
+      <c r="R14" s="4">
+        <v>3</v>
+      </c>
+      <c r="S14" s="4">
+        <v>6</v>
+      </c>
+      <c r="T14" s="4">
+        <v>3</v>
+      </c>
+      <c r="U14" s="4">
+        <v>8</v>
+      </c>
+      <c r="V14" s="4">
+        <v>6</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>49</v>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>750</v>
+      </c>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>425</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5">
+        <v>75000</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>55</v>
+      </c>
+      <c r="L15" s="4">
+        <v>480</v>
+      </c>
+      <c r="M15" s="4">
+        <v>60</v>
+      </c>
+      <c r="N15" s="4">
+        <v>400</v>
+      </c>
+      <c r="O15" s="4">
+        <v>98</v>
+      </c>
+      <c r="P15" s="4">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>60</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4">
+        <v>5</v>
+      </c>
+      <c r="T15" s="4">
+        <v>5</v>
+      </c>
+      <c r="U15" s="4">
+        <v>9</v>
+      </c>
+      <c r="V15" s="4">
+        <v>2</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>499</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43000</v>
+      </c>
+      <c r="H16">
+        <v>48</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>49</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>100</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>43</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>160</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>81000</v>
+      </c>
+      <c r="H18" s="4">
+        <v>40</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>41</v>
+      </c>
+      <c r="L18" s="4">
+        <v>930</v>
+      </c>
+      <c r="M18" s="4">
+        <v>35</v>
+      </c>
+      <c r="N18" s="4">
+        <v>450</v>
+      </c>
+      <c r="O18" s="4">
+        <v>60</v>
+      </c>
+      <c r="P18" s="4">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>51</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
+        <v>5</v>
+      </c>
+      <c r="T18" s="4">
+        <v>7</v>
+      </c>
+      <c r="U18" s="4">
+        <v>8</v>
+      </c>
+      <c r="V18" s="4">
+        <v>3</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1700</v>
+      </c>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:AD18">
+    <sortCondition ref="A13:A18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Overview_Personas.xlsx
+++ b/Overview_Personas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Mein Mac (Hannahs-MBP)/Documents/GitHub/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0BE811-64AD-C646-B5BB-B5ECCFB23F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D24CF2-6884-394B-87D5-FF3D15DB7E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="16180" windowHeight="16480" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28760" windowHeight="16480" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>cust_since</t>
-  </si>
-  <si>
     <t>acc_camp</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">description </t>
+  </si>
+  <si>
+    <t>cust_since (in months)</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E23F5C-01A5-6F4F-A2BE-6CAF40685C27}">
   <dimension ref="A3:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,22 +575,23 @@
     <col min="18" max="18" width="16.6640625" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
     <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="18.1640625" customWidth="1"/>
     <col min="29" max="29" width="14.83203125" customWidth="1"/>
     <col min="30" max="30" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>2</v>
@@ -656,10 +657,10 @@
         <v>32</v>
       </c>
       <c r="Z3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>13</v>
@@ -668,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -744,6 +745,9 @@
       <c r="Y4">
         <v>36</v>
       </c>
+      <c r="Z4">
+        <v>11</v>
+      </c>
       <c r="AA4">
         <v>0</v>
       </c>
@@ -778,7 +782,7 @@
         <v>60000</v>
       </c>
       <c r="H5" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -831,7 +835,9 @@
       <c r="Y5" s="3">
         <v>49</v>
       </c>
-      <c r="Z5" s="3"/>
+      <c r="Z5" s="3">
+        <v>14</v>
+      </c>
       <c r="AA5" s="3">
         <v>0</v>
       </c>
@@ -863,7 +869,9 @@
       <c r="G6" s="4">
         <v>75000</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>45</v>
+      </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
@@ -915,7 +923,9 @@
       <c r="Y6" s="3">
         <v>45</v>
       </c>
-      <c r="Z6" s="3"/>
+      <c r="Z6" s="3">
+        <v>10</v>
+      </c>
       <c r="AA6" s="3">
         <v>0</v>
       </c>
@@ -1002,6 +1012,9 @@
       <c r="Y7">
         <v>49</v>
       </c>
+      <c r="Z7">
+        <v>8</v>
+      </c>
       <c r="AA7">
         <v>0</v>
       </c>
@@ -1034,6 +1047,9 @@
       <c r="G8" s="1">
         <v>40000</v>
       </c>
+      <c r="H8" s="6">
+        <v>44</v>
+      </c>
       <c r="I8">
         <v>1</v>
       </c>
@@ -1084,6 +1100,9 @@
       </c>
       <c r="Y8">
         <v>43</v>
+      </c>
+      <c r="Z8">
+        <v>15</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1116,7 +1135,7 @@
         <v>81000</v>
       </c>
       <c r="H9" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1169,7 +1188,9 @@
       <c r="Y9" s="3">
         <v>42</v>
       </c>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="3">
+        <v>13</v>
+      </c>
       <c r="AA9" s="3">
         <v>2</v>
       </c>

--- a/Overview_Personas.xlsx
+++ b/Overview_Personas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Mein Mac (Hannahs-MBP)/Documents/GitHub/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D24CF2-6884-394B-87D5-FF3D15DB7E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDFEC6F-9DE4-AC46-8E5E-6B6DB38AB8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28760" windowHeight="16480" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28760" windowHeight="16260" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>marital_status</t>
   </si>
@@ -155,6 +155,24 @@
   </si>
   <si>
     <t>cust_since (in months)</t>
+  </si>
+  <si>
+    <t>0(1)</t>
+  </si>
+  <si>
+    <t>1(2)</t>
+  </si>
+  <si>
+    <t>2(3)</t>
+  </si>
+  <si>
+    <t>3(4)</t>
+  </si>
+  <si>
+    <t>4(5)</t>
+  </si>
+  <si>
+    <t>5(6)</t>
   </si>
 </sst>
 </file>
@@ -184,7 +202,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,17 +249,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +579,7 @@
   <dimension ref="A3:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,6 +601,8 @@
     <col min="18" max="18" width="16.6640625" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
     <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="17.1640625" customWidth="1"/>
     <col min="26" max="26" width="18.1640625" customWidth="1"/>
     <col min="29" max="29" width="14.83203125" customWidth="1"/>
     <col min="30" max="30" width="76.33203125" customWidth="1"/>
@@ -593,88 +621,88 @@
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>0</v>
+      <c r="A4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B4">
         <v>590</v>
@@ -762,8 +790,8 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1</v>
+      <c r="A5" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="3">
         <v>516</v>
@@ -852,8 +880,8 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>2</v>
+      <c r="A6" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B6" s="3">
         <v>425</v>
@@ -940,8 +968,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>3</v>
+      <c r="A7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B7">
         <v>499</v>
@@ -1029,94 +1057,96 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
         <v>40000</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="8">
         <v>44</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>20</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>5</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
         <v>50</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <v>6</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="8">
         <v>10</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="8">
         <v>2</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="8">
         <v>3</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="8">
         <v>3</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="8">
         <v>7</v>
       </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
+      <c r="W8" s="8">
+        <v>1</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
         <v>43</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="8">
         <v>15</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
+      <c r="AA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
         <v>100</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="8">
         <v>2</v>
       </c>
+      <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>5</v>
+      <c r="A9" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>160</v>

--- a/Overview_Personas.xlsx
+++ b/Overview_Personas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Mein Mac (Hannahs-MBP)/Documents/GitHub/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDFEC6F-9DE4-AC46-8E5E-6B6DB38AB8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1475F5B9-6D6E-0E42-9884-2AC5442D616F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28760" windowHeight="16260" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16260" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>marital_status</t>
   </si>
@@ -49,12 +49,6 @@
     <t>household_size</t>
   </si>
   <si>
-    <t>rich, no kids, wine, not online, no deals, 40s, graduate to postgraduate (higher education)</t>
-  </si>
-  <si>
-    <t>highly educated, medium income, wine, online, deals sometimes, teenager, 40s</t>
-  </si>
-  <si>
     <t>young couples/families</t>
   </si>
   <si>
@@ -70,16 +64,7 @@
     <t>low income, youngest, online, deals, no wine, small child, couple</t>
   </si>
   <si>
-    <t>singles, medium-high income, no kids, no online, wine</t>
-  </si>
-  <si>
-    <t>complainers</t>
-  </si>
-  <si>
-    <t>total_spent</t>
-  </si>
-  <si>
-    <t>singles, rich, wine, no kids</t>
+    <t>couple, rich, wine, no kids</t>
   </si>
   <si>
     <t>couples, rich, wine, no kids</t>
@@ -127,9 +112,6 @@
     <t>numwebvisitsmonth</t>
   </si>
   <si>
-    <t>complain</t>
-  </si>
-  <si>
     <t>response</t>
   </si>
   <si>
@@ -157,22 +139,28 @@
     <t>cust_since (in months)</t>
   </si>
   <si>
-    <t>0(1)</t>
-  </si>
-  <si>
-    <t>1(2)</t>
-  </si>
-  <si>
-    <t>2(3)</t>
-  </si>
-  <si>
-    <t>3(4)</t>
-  </si>
-  <si>
-    <t>4(5)</t>
-  </si>
-  <si>
-    <t>5(6)</t>
+    <t xml:space="preserve">rich, no kids, wine, not online, no deals, 40s, graduate to postgraduate (higher education), reacts to marketing campaigns, takes </t>
+  </si>
+  <si>
+    <t>1 bis 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 bis 2 </t>
+  </si>
+  <si>
+    <t>1 auch viel 0</t>
+  </si>
+  <si>
+    <t>eher single</t>
+  </si>
+  <si>
+    <t>3 bis 4</t>
+  </si>
+  <si>
+    <t>couples, medium-high income, no kids, no online, wine</t>
+  </si>
+  <si>
+    <t>family oriented, highly educated, medium income, wine, online, deals sometimes, teenager, 40s</t>
   </si>
 </sst>
 </file>
@@ -202,7 +190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,12 +200,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,9 +241,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E23F5C-01A5-6F4F-A2BE-6CAF40685C27}">
-  <dimension ref="A3:AD9"/>
+  <dimension ref="A3:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,23 +584,23 @@
     <col min="20" max="20" width="17.6640625" customWidth="1"/>
     <col min="21" max="21" width="16.33203125" customWidth="1"/>
     <col min="22" max="22" width="17.1640625" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" customWidth="1"/>
-    <col min="29" max="29" width="14.83203125" customWidth="1"/>
-    <col min="30" max="30" width="76.33203125" customWidth="1"/>
+    <col min="25" max="25" width="18.1640625" customWidth="1"/>
+    <col min="27" max="27" width="14.83203125" customWidth="1"/>
+    <col min="28" max="28" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>2</v>
@@ -631,180 +612,169 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4">
+        <v>81000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3">
+        <v>930</v>
+      </c>
+      <c r="M4" s="3">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3">
+        <v>450</v>
+      </c>
+      <c r="O4" s="3">
+        <v>60</v>
+      </c>
+      <c r="P4" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>51</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>5</v>
+      </c>
+      <c r="T4" s="3">
+        <v>7</v>
+      </c>
+      <c r="U4" s="3">
+        <v>8</v>
+      </c>
+      <c r="V4" s="3">
+        <v>3</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="3">
         <v>13</v>
       </c>
-      <c r="AC3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="Z4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="AB4" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>590</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>30000</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>36</v>
-      </c>
-      <c r="Z4">
-        <v>11</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>70</v>
-      </c>
-      <c r="AC4">
-        <v>2</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="B5" s="3">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>60000</v>
@@ -858,385 +828,274 @@
         <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Y5" s="3">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>593</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>36</v>
+      </c>
+      <c r="Y6">
+        <v>11</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>428</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>75000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>55</v>
+      </c>
+      <c r="L7" s="3">
+        <v>480</v>
+      </c>
+      <c r="M7" s="3">
+        <v>60</v>
+      </c>
+      <c r="N7" s="3">
+        <v>400</v>
+      </c>
+      <c r="O7" s="3">
+        <v>98</v>
+      </c>
+      <c r="P7" s="3">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>60</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3">
+        <v>5</v>
+      </c>
+      <c r="U7" s="3">
+        <v>9</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43000</v>
+      </c>
+      <c r="H8">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>49</v>
       </c>
-      <c r="Z5" s="3">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>750</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3">
-        <v>425</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4">
-        <v>75000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>55</v>
-      </c>
-      <c r="L6" s="3">
-        <v>480</v>
-      </c>
-      <c r="M6" s="3">
-        <v>60</v>
-      </c>
-      <c r="N6" s="3">
-        <v>400</v>
-      </c>
-      <c r="O6" s="3">
-        <v>98</v>
-      </c>
-      <c r="P6" s="3">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>60</v>
-      </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <v>5</v>
-      </c>
-      <c r="T6" s="3">
-        <v>5</v>
-      </c>
-      <c r="U6" s="3">
-        <v>9</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>1250</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>499</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="Y8">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>43000</v>
-      </c>
-      <c r="H7">
-        <v>48</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>4</v>
-      </c>
-      <c r="V7">
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>49</v>
-      </c>
-      <c r="Z7">
-        <v>8</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>100</v>
-      </c>
-      <c r="AC7">
-        <v>3</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>40000</v>
-      </c>
-      <c r="H8" s="8">
-        <v>44</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>50</v>
-      </c>
-      <c r="L8" s="8">
-        <v>20</v>
-      </c>
-      <c r="M8" s="8">
-        <v>5</v>
-      </c>
-      <c r="N8" s="8">
-        <v>50</v>
-      </c>
-      <c r="O8" s="8">
-        <v>6</v>
-      </c>
-      <c r="P8" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>10</v>
-      </c>
-      <c r="R8" s="8">
-        <v>2</v>
-      </c>
-      <c r="S8" s="8">
-        <v>3</v>
-      </c>
-      <c r="T8" s="8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="8">
-        <v>3</v>
-      </c>
-      <c r="V8" s="8">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" t="s">
         <v>7</v>
-      </c>
-      <c r="W8" s="8">
-        <v>1</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="8"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3">
-        <v>160</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>81000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>42</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>41</v>
-      </c>
-      <c r="L9" s="3">
-        <v>930</v>
-      </c>
-      <c r="M9" s="3">
-        <v>35</v>
-      </c>
-      <c r="N9" s="3">
-        <v>450</v>
-      </c>
-      <c r="O9" s="3">
-        <v>60</v>
-      </c>
-      <c r="P9" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>51</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
-        <v>7</v>
-      </c>
-      <c r="U9" s="3">
-        <v>8</v>
-      </c>
-      <c r="V9" s="3">
-        <v>3</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>42</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>13</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:AD18">
-    <sortCondition ref="A13:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AB8">
+    <sortCondition ref="A4:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Overview_Personas.xlsx
+++ b/Overview_Personas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Mein Mac (Hannahs-MBP)/Documents/GitHub/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1475F5B9-6D6E-0E42-9884-2AC5442D616F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34D895F-EAEE-7E47-9421-93AA91747952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16260" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>marital_status</t>
   </si>
@@ -52,9 +52,6 @@
     <t>young couples/families</t>
   </si>
   <si>
-    <t>highly educated , older couples / small families</t>
-  </si>
-  <si>
     <t>low income, bigger families</t>
   </si>
   <si>
@@ -160,7 +157,25 @@
     <t>couples, medium-high income, no kids, no online, wine</t>
   </si>
   <si>
-    <t>family oriented, highly educated, medium income, wine, online, deals sometimes, teenager, 40s</t>
+    <t>family oriented,  educated, medium income, wine, online, deals sometimes, teenager, 40s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> educated , older couples / small families</t>
+  </si>
+  <si>
+    <t>Susana</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Michael</t>
   </si>
 </sst>
 </file>
@@ -231,13 +246,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -559,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E23F5C-01A5-6F4F-A2BE-6CAF40685C27}">
   <dimension ref="A3:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,88 +607,88 @@
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -682,15 +698,17 @@
       <c r="B4" s="3">
         <v>157</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4">
         <v>81000</v>
@@ -753,10 +771,10 @@
         <v>2</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -766,12 +784,14 @@
       <c r="B5" s="3">
         <v>532</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -840,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -850,6 +870,9 @@
       <c r="B6">
         <v>593</v>
       </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -857,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1">
         <v>30000</v>
@@ -923,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="AB6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -933,9 +956,11 @@
       <c r="B7" s="3">
         <v>428</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1007,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -1017,11 +1042,14 @@
       <c r="B8">
         <v>500</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1087,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_Personas.xlsx
+++ b/Overview_Personas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Mein Mac (Hannahs-MBP)/Documents/GitHub/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34D895F-EAEE-7E47-9421-93AA91747952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1586AE5-D8BE-CC40-BDDB-9B221DFF1680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16260" xr2:uid="{9864B0CB-F14A-C44F-BD64-38218D1FA3EC}"/>
   </bookViews>
@@ -169,13 +169,13 @@
     <t>Jennifer</t>
   </si>
   <si>
-    <t>Karen</t>
-  </si>
-  <si>
     <t>Richard</t>
   </si>
   <si>
     <t>Michael</t>
+  </si>
+  <si>
+    <t>Claire</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A3:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,7 +957,7 @@
         <v>428</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1043,7 +1043,7 @@
         <v>500</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
